--- a/output/google_maps_data_Kantor_Polisi_Sleman.xlsx
+++ b/output/google_maps_data_Kantor_Polisi_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -500,22 +495,21 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-7.762193</v>
+      </c>
       <c r="G2" t="n">
-        <v>-7.762193</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.415376</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Depok+Timur/@-7.8056335,110.3636606,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59a19b0b3c1d:0x25df91e47423b2!8m2!3d-7.7621926!4d110.4153761!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzt98j26?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,22 +529,21 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-7.772218</v>
+      </c>
       <c r="G3" t="n">
-        <v>-7.772218</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.308399</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Godean/@-7.7722185,110.2363009,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af7afffbd259f:0xd84d8fa461130ab4!8m2!3d-7.7722185!4d110.3083987!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBBnBvbGljZeABAA!16s%2Fg%2F1tf4hb8b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -566,22 +559,21 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-7.773659</v>
+      </c>
       <c r="G4" t="n">
-        <v>-7.773659</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.410802</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Polresta+Sleman/@-7.773659,110.3387037,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59ecd0e5d401:0x92bdff6beef13a84!8m2!3d-7.773659!4d110.4108015!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11g8w8h4b_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -600,25 +592,24 @@
           <t>(0274) 557111</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>-7.770448</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.770448</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.38492</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Polsek+Bulaksumur/@-7.773659,110.3387037,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a585eaaaaaaab:0xcf9aaae016a3a70d!8m2!3d-7.7704482!4d110.3849196!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzvqx21n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Polsek+Bulaksumur/@-7.773659,110.3387037,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a585eaaaaaaab:0xcf9aaae016a3a70d!8m2!3d-7.7704482!4d110.3849196!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzvqx21n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -642,22 +633,21 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-7.80274</v>
+      </c>
       <c r="G6" t="n">
-        <v>-7.80274</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.313879</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gamping/@-7.8027402,110.2417816,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af82ddfb4ee21:0xe4a493dfd45cda3f!8m2!3d-7.8027402!4d110.3138794!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tgyz07t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -677,22 +667,21 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-7.706698</v>
+      </c>
       <c r="G7" t="n">
-        <v>-7.706698</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.347617</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Sleman/@-7.7066976,110.2755187,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f4f21629b4f:0x855bd267f12870b6!8m2!3d-7.7066976!4d110.3476165!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11clzv121q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -712,22 +701,21 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-7.765817</v>
+      </c>
       <c r="G8" t="n">
-        <v>-7.765817</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.47214</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kalasan/@-7.7658174,110.4000425,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a57c62bcf2d99:0xefe2be2ae9b6459f!8m2!3d-7.7658174!4d110.4721403!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1q62hp_35?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -751,22 +739,21 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-7.696696</v>
+      </c>
       <c r="G9" t="n">
-        <v>-7.696696</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.347047</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polresta+Sleman/@-7.696696,110.2749495,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a598550719909:0x8ad31fef5597f6f0!8m2!3d-7.696696!4d110.3470473!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tf2hw0n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -790,22 +777,21 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-7.783495</v>
+      </c>
       <c r="G10" t="n">
-        <v>-7.783495</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.405824</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Depok+Barat/@-7.7834948,110.3337266,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59e8a023d623:0xee6b9b2fe90cd5cc!8m2!3d-7.7834948!4d110.4058244!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptyzdsfc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -825,22 +811,21 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-7.773488</v>
+      </c>
       <c r="G11" t="n">
-        <v>-7.773488</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.253554</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Moyudan/@-7.7734878,110.1814559,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af73bfa3db5c9:0xea7e1967629e0bbe!8m2!3d-7.7734878!4d110.2535537!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tq_yyn3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -855,25 +840,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F12" t="n">
-        <v>3.9</v>
+        <v>-7.748855</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.748855</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.361935</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas+Jombor/@-7.7488555,110.289837,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58f1410700cf:0x184f69a818c2fbf4!8m2!3d-7.7488555!4d110.3619348!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11bzrpr2cb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas+Jombor/@-7.7488555,110.289837,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58f1410700cf:0x184f69a818c2fbf4!8m2!3d-7.7488555!4d110.3619348!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11bzrpr2cb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -897,22 +881,21 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-7.790518</v>
+      </c>
       <c r="G13" t="n">
-        <v>-7.790518</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.460027</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Berbah/@-7.7905181,110.3879294,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a509155555569:0x98c0aea28f9675eb!8m2!3d-7.7905181!4d110.4600272!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pty72y7x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -928,22 +911,21 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.755802</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.755802</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.399397</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polisi+Condong+Catur/@-7.7558021,110.3272991,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59a0ffffffff:0x75f34265e7dbabec!8m2!3d-7.7558021!4d110.3993969!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pztc07cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -963,22 +945,21 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-7.734542</v>
+      </c>
       <c r="G15" t="n">
-        <v>-7.734542</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.328423</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Mlati/@-7.7345421,110.2563256,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af73c3974f21f:0xa45a5510322ae7de!8m2!3d-7.7345421!4d110.3284234!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11t178vm1c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -998,22 +979,21 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-7.759475</v>
+      </c>
       <c r="G16" t="n">
-        <v>-7.759475</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.488467</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Prambanan+Sleman/@-7.7594746,110.416369,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5aeef2ede2d1:0x3c202c666d6933d5!8m2!3d-7.7594746!4d110.4884668!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzy4_0by?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1037,22 +1017,21 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-7.77221</v>
+      </c>
       <c r="G17" t="n">
-        <v>-7.77221</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.361511</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Tegalrejo/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5838ca072237:0xef87691426c806d5!8m2!3d-7.7722103!4d110.3615107!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1hm1v97ml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1072,22 +1051,21 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-7.758294</v>
+      </c>
       <c r="G18" t="n">
-        <v>-7.758294</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.395499</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5787bd5b6bc5:0xd55f7ac52dab5998!8m2!3d-7.758294!4d110.3954992!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F12hny_gg0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1103,22 +1081,21 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-7.745165</v>
+      </c>
       <c r="G19" t="n">
-        <v>-7.745165</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.349106</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a589206a89b09:0x62b7ae7e1bad48bd!8m2!3d-7.7451647!4d110.3491055!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11dxh7p0s0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1133,25 +1110,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>-7.755289</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.755289</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.38328</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Lantas+Kentungan/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59aa158cf8af:0x6b61b58f2a5aab9a!8m2!3d-7.755289!4d110.3832801!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBEmp1c3RpY2VfZGVwYXJ0bWVudOABAA!16s%2Fg%2F11c6pmq6hc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Lantas+Kentungan/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59aa158cf8af:0x6b61b58f2a5aab9a!8m2!3d-7.755289!4d110.3832801!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBEmp1c3RpY2VfZGVwYXJ0bWVudOABAA!16s%2Fg%2F11c6pmq6hc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1179,22 +1155,21 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-7.799455</v>
+      </c>
       <c r="G21" t="n">
-        <v>-7.799455</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.362605</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polresta+Yogyakarta/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5789121ec1bb:0x80385781dba92dd7!8m2!3d-7.7994546!4d110.3626046!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1hm1wzz9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1213,25 +1188,24 @@
           <t>(0274) 868424</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>-7.697103</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.697103</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.346522</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kepolisian+Resor+Sleman/@-7.6971026,110.2744244,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f43b7a7e645:0x117ed5382f99a2c1!8m2!3d-7.6971026!4d110.3465222!15sChRLYW50b3IgUG9saXNpIFNsZW1hbuABAA!16s%2Fg%2F11b6d0l7cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kepolisian+Resor+Sleman/@-7.6971026,110.2744244,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f43b7a7e645:0x117ed5382f99a2c1!8m2!3d-7.6971026!4d110.3465222!15sChRLYW50b3IgUG9saXNpIFNsZW1hbuABAA!16s%2Fg%2F11b6d0l7cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1250,25 +1224,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>-7.761825</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.761825</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.411809</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas+UPN+Veteran/@-7.7618253,110.339711,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a599a8c444315:0xfcb2ee8e87a5b75e!8m2!3d-7.7618253!4d110.4118088!15sChRLYW50b3IgUG9saXNpIFNsZW1hbloWIhRrYW50b3IgcG9saXNpIHNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRdGNXVmZUa2xSRUFF4AEA-gEECAAQQA!16s%2Fg%2F11f12681q4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas+UPN+Veteran/@-7.7618253,110.339711,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a599a8c444315:0xfcb2ee8e87a5b75e!8m2!3d-7.7618253!4d110.4118088!15sChRLYW50b3IgUG9saXNpIFNsZW1hbloWIhRrYW50b3IgcG9saXNpIHNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRdGNXVmZUa2xSRUFF4AEA-gEECAAQQA!16s%2Fg%2F11f12681q4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1296,22 +1269,21 @@
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-7.757557</v>
+      </c>
       <c r="G24" t="n">
-        <v>-7.757557</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.400701</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polda+D.I.+Yogyakarta/@-7.7618253,110.339711,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a599977ac8e1b:0xc28ff50874bd94a8!8m2!3d-7.7575571!4d110.4007005!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDHN0YXRlX3BvbGljZeABAA!16s%2Fg%2F1pxys8_6w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1330,25 +1302,24 @@
           <t>(0274) 888035</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>-7.769039</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.769039</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.431482</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sat+PJR+Ditlantas+Polda+DIY/@-7.7618253,110.339711,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5a217abba5ed:0x9719679c1fb151e3!8m2!3d-7.7690391!4d110.4314822!15sChRLYW50b3IgUG9saXNpIFNsZW1hbloWIhRrYW50b3IgcG9saXNpIHNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWGQzWklVVTluRUFF4AEA-gEECAAQDw!16s%2Fg%2F11bv3xrcwy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sat+PJR+Ditlantas+Polda+DIY/@-7.7618253,110.339711,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5a217abba5ed:0x9719679c1fb151e3!8m2!3d-7.7690391!4d110.4314822!15sChRLYW50b3IgUG9saXNpIFNsZW1hbloWIhRrYW50b3IgcG9saXNpIHNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWGQzWklVVTluRUFF4AEA-gEECAAQDw!16s%2Fg%2F11bv3xrcwy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1372,22 +1343,21 @@
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-7.758971</v>
+      </c>
       <c r="G26" t="n">
-        <v>-7.758971</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.362115</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Detasemen+Polisi+Militer+Denpom+IV%2F2+Yka+Pomdam+IV%2FDiponegoro/@-7.7589711,110.2900173,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58f6f72274f1:0x53e373e1f065fd39!8m2!3d-7.7589711!4d110.3621151!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F1pzpwwrhg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1411,22 +1381,21 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-7.803828</v>
+      </c>
       <c r="G27" t="n">
-        <v>-7.803828</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.370111</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gondomanan/@-7.7589711,110.2900173,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5784fbfea4a3:0xc569b3f8dddbadb6!8m2!3d-7.8038275!4d110.3701109!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tqq0k8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1446,22 +1415,21 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-7.723479</v>
+      </c>
       <c r="G28" t="n">
-        <v>-7.723479</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.400944</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Ngaglik/@-7.7234786,110.3288462,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59aa0873795f:0x478c897fa33c24b!8m2!3d-7.7234786!4d110.400944!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBBnBvbGljZeABAA!16s%2Fg%2F1pzs4252m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1477,22 +1445,21 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-7.783073</v>
+      </c>
       <c r="G29" t="n">
-        <v>-7.783073</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.410665</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Janti/@-7.7234786,110.3288462,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59ef7b7dff59:0x16d06975b0699348!8m2!3d-7.7830725!4d110.4106649!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11ddww9pnq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1512,22 +1479,21 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-7.720148</v>
+      </c>
       <c r="G30" t="n">
-        <v>-7.720148</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.308698</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Seyegan/@-7.7201483,110.2366005,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af60b15d42ca9:0xc5c92e4ccd70a5cf!8m2!3d-7.7201483!4d110.3086983!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptz4nzr4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1543,22 +1509,21 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-7.697064</v>
+      </c>
       <c r="G31" t="n">
-        <v>-7.697064</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.347686</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Reskrim+Polresta+Sleman/@-7.6970645,110.2755885,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f51e07423f9:0x4d4dff62c30e4a76!8m2!3d-7.6970645!4d110.3476863!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11k7ks8mx8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1582,22 +1547,21 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-7.789446</v>
+      </c>
       <c r="G32" t="n">
-        <v>-7.789446</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.361225</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gedongtengen/@-7.7894463,110.2891269,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5825fc9be1bf:0x8aaab7396fe34c26!8m2!3d-7.7894463!4d110.3612247!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tgl6bk0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1616,25 +1580,24 @@
           <t>0819-9710-2007</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.9</v>
+        <v>-7.799647</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.799647</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.362429</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.7894463,110.2891269,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sChRLYW50b3IgUG9saXNpIFNsZW1hbloWIhRrYW50b3IgcG9saXNpIHNsZW1hbpIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1650,22 +1613,21 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-7.755216</v>
+      </c>
       <c r="G34" t="n">
-        <v>-7.755216</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.383302</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/pos+polisi+kentungan/@-7.7894463,110.2891269,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5900213d4113:0x19f39359fb732f1!8m2!3d-7.7552161!4d110.3833022!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11ld5x891n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1685,22 +1647,21 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-7.746385</v>
+      </c>
       <c r="G35" t="n">
-        <v>-7.746385</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.412805</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Polisi+Pamong+Praja/@-7.746385,110.3407069,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5970bf5f8cc3:0x30183dfb647b7456!8m2!3d-7.746385!4d110.4128047!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F1pzv1s58r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1720,22 +1681,21 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-7.652539</v>
+      </c>
       <c r="G36" t="n">
-        <v>-7.652539</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.326476</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Tempel/@-7.6525391,110.254378,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af559c68266dd:0x7d9706a40fadf76d!8m2!3d-7.6525391!4d110.3264758!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzr4qx2t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1750,25 +1710,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>-7.799716</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.799716</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.330136</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+POLISI+%22Pelem+Gurih%22/@-7.7997164,110.2580381,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af8006ffaa9b5:0x3a5cefd38d065119!8m2!3d-7.7997164!4d110.3301359!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBFHB1YmxpY19zYWZldHlfb2ZmaWNl4AEA!16s%2Fg%2F11dym8znt5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+POLISI+%22Pelem+Gurih%22/@-7.7997164,110.2580381,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af8006ffaa9b5:0x3a5cefd38d065119!8m2!3d-7.7997164!4d110.3301359!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBFHB1YmxpY19zYWZldHlfb2ZmaWNl4AEA!16s%2Fg%2F11dym8znt5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1792,22 +1751,21 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-7.720659</v>
+      </c>
       <c r="G38" t="n">
-        <v>-7.720659</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.359689</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polisi+Pariwisata+Sleman/@-7.720659,110.287591,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58c93973e67d:0xebf1039f93618117!8m2!3d-7.720659!4d110.3596888!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11bc7qd2yn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1827,22 +1785,21 @@
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-7.698017</v>
+      </c>
       <c r="G39" t="n">
-        <v>-7.698017</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.444676</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Ngemplak/@-7.6980168,110.3725786,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5c12229434bd:0x4f08b169ac466836!8m2!3d-7.6980168!4d110.4446764!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11c2j9pg_m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1866,22 +1823,21 @@
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-7.724829</v>
+      </c>
       <c r="G40" t="n">
-        <v>-7.724829</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.267044</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Minggir/@-7.7248295,110.1949461,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af69bbf25d31f:0xaf38013db1f160b0!8m2!3d-7.7248295!4d110.2670439!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1thv28rr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1905,22 +1861,21 @@
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-7.788391</v>
+      </c>
       <c r="G41" t="n">
-        <v>-7.788391</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.378041</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Danurejan/@-7.7883908,110.3059433,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a582cc91e9b39:0x9eca52988bea4085!8m2!3d-7.7883908!4d110.3780411!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBBnBvbGljZeABAA!16s%2Fg%2F1tx75td6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1944,22 +1899,21 @@
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-7.797843</v>
+      </c>
       <c r="G42" t="n">
-        <v>-7.797843</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.376579</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pakualaman/@-7.7883908,110.3059433,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a57804a6e69a5:0xd5497043793affda!8m2!3d-7.7978432!4d110.3765788!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tjxnvwj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1983,22 +1937,21 @@
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-7.783032</v>
+      </c>
       <c r="G43" t="n">
-        <v>-7.783032</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.359903</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Jetis/@-7.7883908,110.3059433,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5840bfffffff:0x7fc5021ae8790f58!8m2!3d-7.7830317!4d110.3599025!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBBnBvbGljZeABAA!16s%2Fg%2F1pzpqljw9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2014,22 +1967,21 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-7.735478</v>
+      </c>
       <c r="G44" t="n">
-        <v>-7.735478</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.362906</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Polisi+Pos+Mlati/@-7.7883908,110.3059433,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58e9c645e693:0xf4d87d9c9a37d949!8m2!3d-7.735478!4d110.3629059!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11gfhb4z9l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2044,25 +1996,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>-7.757521</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.757521</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.480283</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Proliman/@-7.7575212,110.4081854,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5afa25f6a983:0x39e34f20f4cf3a66!8m2!3d-7.7575212!4d110.4802832!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11ddwxqtbl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Proliman/@-7.7575212,110.4081854,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5afa25f6a983:0x39e34f20f4cf3a66!8m2!3d-7.7575212!4d110.4802832!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11ddwxqtbl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2082,22 +2033,21 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>-7.74497</v>
+      </c>
       <c r="G46" t="n">
-        <v>-7.74497</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.364762</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Ronda+Jombor+Lor/@-7.7449698,110.2926637,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58f026619413:0x9cb5b7e9a91c8dc9!8m2!3d-7.7449698!4d110.3647615!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11g01_99xh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2113,22 +2063,21 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>-7.696581</v>
+      </c>
       <c r="G47" t="n">
-        <v>-7.696581</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.346708</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Narkoba+Polresta+Sleman/@-7.7449698,110.2926637,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f0b02037cb5:0x881722a7240efd71!8m2!3d-7.696581!4d110.3467075!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11r95dg_2q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2148,22 +2097,21 @@
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>-7.660559</v>
+      </c>
       <c r="G48" t="n">
-        <v>-7.660559</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.42144</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pakem/@-7.6605589,110.3493424,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5e9937a52f7b:0x32a0301102373b13!8m2!3d-7.6605589!4d110.4214402!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzrhlfyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
